--- a/EssilorLuxottica Projects/LUX - 01 - Load Vendor Open Item/Data/ReportsDetail.xlsx
+++ b/EssilorLuxottica Projects/LUX - 01 - Load Vendor Open Item/Data/ReportsDetail.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Retrieve Vendor Open Item Reports\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Load Vendor Open Item\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF30F39-1EE0-4576-BCE1-A13FA77C6521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A17BFA-CAF4-4466-9788-B38CB57B7FBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -369,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,16 +413,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3442817-BE5E-4E6F-B118-35426678FD37}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/EssilorLuxottica Projects/LUX - 01 - Load Vendor Open Item/Data/ReportsDetail.xlsx
+++ b/EssilorLuxottica Projects/LUX - 01 - Load Vendor Open Item/Data/ReportsDetail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Load Vendor Open Item\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A17BFA-CAF4-4466-9788-B38CB57B7FBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989FBF07-8636-4BC9-BBC3-AED7D35B5523}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>System</t>
   </si>
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,26 +391,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -421,19 +405,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3442817-BE5E-4E6F-B118-35426678FD37}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>

--- a/EssilorLuxottica Projects/LUX - 01 - Load Vendor Open Item/Data/ReportsDetail.xlsx
+++ b/EssilorLuxottica Projects/LUX - 01 - Load Vendor Open Item/Data/ReportsDetail.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Load Vendor Open Item\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Load Vendor Open Item\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989FBF07-8636-4BC9-BBC3-AED7D35B5523}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABB94CC-17FC-4673-948D-C5B7D731F46C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t>System</t>
   </si>
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,9 +391,33 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -408,7 +432,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/EssilorLuxottica Projects/LUX - 01 - Load Vendor Open Item/Data/ReportsDetail.xlsx
+++ b/EssilorLuxottica Projects/LUX - 01 - Load Vendor Open Item/Data/ReportsDetail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Load Vendor Open Item\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABB94CC-17FC-4673-948D-C5B7D731F46C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6120FEF-52A7-41D1-8F44-17F5BE1C0683}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -373,7 +373,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/EssilorLuxottica Projects/LUX - 01 - Load Vendor Open Item/Data/ReportsDetail.xlsx
+++ b/EssilorLuxottica Projects/LUX - 01 - Load Vendor Open Item/Data/ReportsDetail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Load Vendor Open Item\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6120FEF-52A7-41D1-8F44-17F5BE1C0683}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94962B8-1D3C-41A0-8C15-126D87514BF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -373,7 +373,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/EssilorLuxottica Projects/LUX - 01 - Load Vendor Open Item/Data/ReportsDetail.xlsx
+++ b/EssilorLuxottica Projects/LUX - 01 - Load Vendor Open Item/Data/ReportsDetail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Load Vendor Open Item\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94962B8-1D3C-41A0-8C15-126D87514BF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92ABCEF0-D78A-47E8-A49D-23FFDE7D5E86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -373,7 +373,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/EssilorLuxottica Projects/LUX - 01 - Load Vendor Open Item/Data/ReportsDetail.xlsx
+++ b/EssilorLuxottica Projects/LUX - 01 - Load Vendor Open Item/Data/ReportsDetail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Load Vendor Open Item\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92ABCEF0-D78A-47E8-A49D-23FFDE7D5E86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7DC7EB-592B-4E43-B85F-9D5FF65D01D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -373,7 +373,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
